--- a/Assets/Resources/ScriptableObjects/MusicalCharacters.xlsx
+++ b/Assets/Resources/ScriptableObjects/MusicalCharacters.xlsx
@@ -76,6 +76,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,7 +364,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -446,7 +447,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -478,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>

--- a/Assets/Resources/ScriptableObjects/MusicalCharacters.xlsx
+++ b/Assets/Resources/ScriptableObjects/MusicalCharacters.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -476,16 +476,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
